--- a/raw_data/jarLeak/BottleSalinityMap.xlsx
+++ b/raw_data/jarLeak/BottleSalinityMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinerovinski/Documents/GitHub/krl_lrv_ph_temp_2021/raw_data/jarLeak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED567E2-8AA1-FB43-BB1B-4FD31AA883C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755DD35C-4940-6C41-840F-73803D28E7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="640" windowWidth="10000" windowHeight="9600" xr2:uid="{6A82015E-A4D4-0E43-BF51-CF8FC200D29D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6A82015E-A4D4-0E43-BF51-CF8FC200D29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>BottleID</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>HiCO2</t>
+  </si>
+  <si>
+    <t>Day00_pHiinsitu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +104,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,9 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,19 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1510FCB7-9742-AD4D-96F9-E9519E89387B}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="F20" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +477,11 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -479,8 +494,11 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="2">
+        <v>7.8100238700000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,8 +511,11 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="2">
+        <v>7.4697584499999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -507,8 +528,11 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="2">
+        <v>7.8159390000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -521,8 +545,11 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="2">
+        <v>7.4887089500000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -535,8 +562,11 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="2">
+        <v>7.8066033700000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -549,8 +579,11 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="2">
+        <v>7.5160087899999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -563,8 +596,11 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="2">
+        <v>7.8078035799999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -577,8 +613,11 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2">
+        <v>7.5395414199999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -591,8 +630,11 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="2">
+        <v>7.8260678800000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -605,12 +647,123 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="2">
+        <v>7.5864543199999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
